--- a/Unknown_Platypus/Table/SkillOptionTable.xlsx
+++ b/Unknown_Platypus/Table/SkillOptionTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\platypus\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D45456-F81B-4BDD-B68E-0BC9590537C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A126C-2C53-4CD4-B7DD-C32BBE7A105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="121">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스에게 입히는 치명타 확률이 0.01% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컬럼명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -487,6 +483,34 @@
   </si>
   <si>
     <t>관통 데미지(방어력 무시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 전체 피해량이 0.02% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAllDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스에게 입히는 치명타 확률이 0.1% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 전체 피해량이 0.04% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 전체 피해량이 0.06% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 전체 피해량이 0.08% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 전체 피해량이 0.1% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,11 +1019,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3595"/>
+  <dimension ref="A1:F3598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1886,7 +1910,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1903,7 +1927,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -1920,7 +1944,7 @@
         <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1937,7 +1961,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1954,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -2206,7 +2230,7 @@
         <v>20070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>86</v>
@@ -2304,63 +2328,133 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>20076</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>20077</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>20078</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>20079</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>20080</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -3584,14 +3678,14 @@
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503" s="1"/>
     </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A504" s="1"/>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+    </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506" s="1"/>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" s="1"/>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509" s="1"/>
@@ -5638,9 +5732,14 @@
       <c r="C1132" s="3"/>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1133" s="1"/>
       <c r="C1133" s="3"/>
     </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1134" s="1"/>
+    </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1135" s="1"/>
       <c r="C1135" s="3"/>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
@@ -5682,15 +5781,6 @@
     <row r="1148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C1148" s="3"/>
     </row>
-    <row r="1149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1149" s="1"/>
-    </row>
-    <row r="1150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1150" s="1"/>
-    </row>
-    <row r="1151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1151" s="1"/>
-    </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1152" s="1"/>
     </row>
@@ -13022,6 +13112,15 @@
     </row>
     <row r="3595" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3595" s="1"/>
+    </row>
+    <row r="3596" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3596" s="1"/>
+    </row>
+    <row r="3597" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3597" s="1"/>
+    </row>
+    <row r="3598" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3598" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A43:E858">
@@ -13053,10 +13152,10 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -13064,7 +13163,7 @@
         <v>78</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -13072,7 +13171,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -13080,7 +13179,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -13088,7 +13187,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -13096,7 +13195,7 @@
         <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -13104,7 +13203,7 @@
         <v>79</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -13112,7 +13211,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -13120,15 +13219,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -13136,7 +13235,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -13144,7 +13243,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -13152,15 +13251,15 @@
         <v>86</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -13168,15 +13267,15 @@
         <v>84</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -13184,7 +13283,7 @@
         <v>77</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Unknown_Platypus/Table/SkillOptionTable.xlsx
+++ b/Unknown_Platypus/Table/SkillOptionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19A126C-2C53-4CD4-B7DD-C32BBE7A105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA7EB4-44E1-4D23-B40C-FC27BE4B671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>투사체의 개수가 1개 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체의 속도가 0.04% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,6 +508,9 @@
   <si>
     <t>스킬 전체 피해량이 0.1% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투사체의 속도가 0.04% 증가합니다.</t>
   </si>
 </sst>
 </file>
@@ -1022,8 +1021,8 @@
   <dimension ref="A1:F3598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1059,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1077,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1094,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -1111,7 +1110,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -1128,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -1145,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1162,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1179,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1196,7 +1195,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1213,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1227,10 +1226,10 @@
         <v>20011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1244,10 +1243,10 @@
         <v>20012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1261,10 +1260,10 @@
         <v>20013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -1278,10 +1277,10 @@
         <v>20014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1295,10 +1294,10 @@
         <v>20015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1315,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -1329,10 +1328,10 @@
         <v>20017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1346,10 +1345,10 @@
         <v>20018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1363,10 +1362,10 @@
         <v>20019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1380,10 +1379,10 @@
         <v>20020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1397,10 +1396,10 @@
         <v>20021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1414,10 +1413,10 @@
         <v>20022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1431,10 +1430,10 @@
         <v>20023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1448,10 +1447,10 @@
         <v>20024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1465,10 +1464,10 @@
         <v>20025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
@@ -1482,7 +1481,7 @@
         <v>20026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1499,7 +1498,7 @@
         <v>20027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1516,7 +1515,7 @@
         <v>20028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -1533,7 +1532,7 @@
         <v>20029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1550,7 +1549,7 @@
         <v>20030</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1567,10 +1566,10 @@
         <v>20031</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
@@ -1584,10 +1583,10 @@
         <v>20032</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -1601,10 +1600,10 @@
         <v>20033</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -1618,10 +1617,10 @@
         <v>20034</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
@@ -1635,10 +1634,10 @@
         <v>20035</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
@@ -1652,10 +1651,10 @@
         <v>20036</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -1669,10 +1668,10 @@
         <v>20037</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -1686,10 +1685,10 @@
         <v>20038</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -1703,10 +1702,10 @@
         <v>20039</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -1720,10 +1719,10 @@
         <v>20040</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -1737,10 +1736,10 @@
         <v>20041</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -1754,10 +1753,10 @@
         <v>20042</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
@@ -1771,10 +1770,10 @@
         <v>20043</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -1788,10 +1787,10 @@
         <v>20044</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -1805,10 +1804,10 @@
         <v>20045</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -1822,10 +1821,10 @@
         <v>20046</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
@@ -1839,10 +1838,10 @@
         <v>20047</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -1856,10 +1855,10 @@
         <v>20048</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -1873,10 +1872,10 @@
         <v>20049</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
@@ -1890,10 +1889,10 @@
         <v>20050</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
@@ -1907,10 +1906,10 @@
         <v>20051</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -1924,10 +1923,10 @@
         <v>20052</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -1941,10 +1940,10 @@
         <v>20053</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
@@ -1958,10 +1957,10 @@
         <v>20054</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
@@ -1975,10 +1974,10 @@
         <v>20055</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
@@ -1992,10 +1991,10 @@
         <v>20056</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -2009,10 +2008,10 @@
         <v>20057</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="1">
         <v>2</v>
@@ -2026,10 +2025,10 @@
         <v>20058</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -2043,10 +2042,10 @@
         <v>20059</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="1">
         <v>2</v>
@@ -2060,10 +2059,10 @@
         <v>20060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="1">
         <v>2</v>
@@ -2077,10 +2076,10 @@
         <v>20061</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D62" s="1">
         <v>0</v>
@@ -2094,10 +2093,10 @@
         <v>20062</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="1">
         <v>0</v>
@@ -2111,10 +2110,10 @@
         <v>20063</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" s="1">
         <v>0</v>
@@ -2128,10 +2127,10 @@
         <v>20064</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65" s="1">
         <v>0</v>
@@ -2145,10 +2144,10 @@
         <v>20065</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D66" s="1">
         <v>0</v>
@@ -2162,10 +2161,10 @@
         <v>20066</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1">
         <v>0</v>
@@ -2179,10 +2178,10 @@
         <v>20067</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="1">
         <v>0</v>
@@ -2196,10 +2195,10 @@
         <v>20068</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="1">
         <v>0</v>
@@ -2213,10 +2212,10 @@
         <v>20069</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="1">
         <v>0</v>
@@ -2230,10 +2229,10 @@
         <v>20070</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="1">
         <v>0</v>
@@ -2247,10 +2246,10 @@
         <v>20071</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D72" s="1">
         <v>0</v>
@@ -2264,10 +2263,10 @@
         <v>20072</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D73" s="1">
         <v>0</v>
@@ -2281,10 +2280,10 @@
         <v>20073</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -2298,10 +2297,10 @@
         <v>20074</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="1">
         <v>0</v>
@@ -2315,10 +2314,10 @@
         <v>20075</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -2332,10 +2331,10 @@
         <v>20076</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D77" s="1">
         <v>0</v>
@@ -2349,10 +2348,10 @@
         <v>20077</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1">
         <v>0</v>
@@ -2366,10 +2365,10 @@
         <v>20078</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1">
         <v>0</v>
@@ -2383,10 +2382,10 @@
         <v>20079</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" s="1">
         <v>0</v>
@@ -2400,10 +2399,10 @@
         <v>20080</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" s="1">
         <v>0</v>
@@ -13152,66 +13151,66 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -13219,71 +13218,71 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="33" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">

--- a/Unknown_Platypus/Table/SkillOptionTable.xlsx
+++ b/Unknown_Platypus/Table/SkillOptionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EA7EB4-44E1-4D23-B40C-FC27BE4B671C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E525E4E-5C75-4938-8DEF-8BD76D74AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:F3598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>

--- a/Unknown_Platypus/Table/SkillOptionTable.xlsx
+++ b/Unknown_Platypus/Table/SkillOptionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E525E4E-5C75-4938-8DEF-8BD76D74AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD442BC-C69E-45CE-8130-0BB6ACBDFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Unknown_Platypus/Table/SkillOptionTable.xlsx
+++ b/Unknown_Platypus/Table/SkillOptionTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git fork\Unknown\Unknown_Platypus\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD442BC-C69E-45CE-8130-0BB6ACBDFEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A550FFF-A7E4-497A-A03D-297D9B493A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,8 +1021,8 @@
   <dimension ref="A1:F3598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
